--- a/biology/Mycologie/Cortinarius_gentilis/Cortinarius_gentilis.xlsx
+++ b/biology/Mycologie/Cortinarius_gentilis/Cortinarius_gentilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cortinaire gentil
 Cortinarius gentilis, de son nom vernaculaire en français le Cortinaire gentil, est une espèce de champignons basidiomycètes non comestible de la famille des Cortinariaceae.
@@ -512,7 +524,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyménophore (chapeau) est de  couleur marron jaune vif, convexe puis étalé.
 Le stipe (pied) est couleur de cannelle.
@@ -544,10 +558,12 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cortinarius gentilis est un champignon mortel du genre Cortinarius, normalement trouvé en Amérique du Nord et en Europe.
-C'est un champignon vénéneux et pouvant causer des intoxications graves, une étude finlandaise[3] a montré que C. gentilis et C. orellanus, séchés et homogénéisés, puis introduits par voie orale chez le rat ont causé des lésions rénales seulement, dont des modifications correspondent à la néphrite tubulo-interstitielle. Il a été montré que C. gentilis est néphrotoxique pour les rats[4].
+C'est un champignon vénéneux et pouvant causer des intoxications graves, une étude finlandaise a montré que C. gentilis et C. orellanus, séchés et homogénéisés, puis introduits par voie orale chez le rat ont causé des lésions rénales seulement, dont des modifications correspondent à la néphrite tubulo-interstitielle. Il a été montré que C. gentilis est néphrotoxique pour les rats.
 </t>
         </is>
       </c>
